--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999897780074121</v>
+        <v>0.9999992176520535</v>
       </c>
       <c r="E3">
-        <v>0.9999897780074121</v>
+        <v>0.9999992176520535</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9.329986486081451E-10</v>
+        <v>6.125234272457923E-10</v>
       </c>
       <c r="E4">
-        <v>9.329986486081451E-10</v>
+        <v>6.125234272457923E-10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001353287609514987</v>
+        <v>9.515590701970698E-08</v>
       </c>
       <c r="E5">
-        <v>0.0001353287609514987</v>
+        <v>9.515590701970698E-08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.299110223997167E-65</v>
+        <v>1.312496810941614E-58</v>
       </c>
       <c r="E6">
-        <v>5.299110223997167E-65</v>
+        <v>1.312496810941614E-58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.107223250512127E-16</v>
+        <v>1.161779723084769E-15</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.480554433522374E-06</v>
+        <v>1.389074516416762E-05</v>
       </c>
       <c r="E11">
-        <v>0.9999975194455665</v>
+        <v>0.9999861092548359</v>
       </c>
       <c r="F11">
-        <v>132.7271728515625</v>
+        <v>126.1665496826172</v>
       </c>
       <c r="G11">
         <v>0.5</v>
